--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vtn-Itgb8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H2">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J2">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>4.237840333333334</v>
+        <v>0.027767</v>
       </c>
       <c r="N2">
-        <v>12.713521</v>
+        <v>0.083301</v>
       </c>
       <c r="O2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P2">
-        <v>0.4475167411500002</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q2">
-        <v>8.567177052076779</v>
+        <v>0.334777944628</v>
       </c>
       <c r="R2">
-        <v>77.10459346869101</v>
+        <v>3.013001501652</v>
       </c>
       <c r="S2">
-        <v>0.004995460880890635</v>
+        <v>0.000184417250448188</v>
       </c>
       <c r="T2">
-        <v>0.004995460880890635</v>
+        <v>0.000184417250448188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.021590333333334</v>
+        <v>12.056684</v>
       </c>
       <c r="H3">
-        <v>6.064771</v>
+        <v>36.170052</v>
       </c>
       <c r="I3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J3">
-        <v>0.01116262347650641</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.231839666666666</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N3">
-        <v>15.695519</v>
+        <v>12.713521</v>
       </c>
       <c r="O3">
-        <v>0.5524832588499997</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P3">
-        <v>0.5524832588499998</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q3">
-        <v>10.57663649568322</v>
+        <v>51.09430174145466</v>
       </c>
       <c r="R3">
-        <v>95.18972846114899</v>
+        <v>459.848715673092</v>
       </c>
       <c r="S3">
-        <v>0.006167162595615776</v>
+        <v>0.02814603169632175</v>
       </c>
       <c r="T3">
-        <v>0.006167162595615778</v>
+        <v>0.02814603169632175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>25.140634</v>
+        <v>12.056684</v>
       </c>
       <c r="H4">
-        <v>75.421902</v>
+        <v>36.170052</v>
       </c>
       <c r="I4">
-        <v>0.1388191398995883</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="J4">
-        <v>0.1388191398995883</v>
+        <v>0.06307822458376462</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.237840333333334</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N4">
-        <v>12.713521</v>
+        <v>15.695519</v>
       </c>
       <c r="O4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P4">
-        <v>0.4475167411500002</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q4">
-        <v>106.5419927707713</v>
+        <v>63.07863759966533</v>
       </c>
       <c r="R4">
-        <v>958.8779349369421</v>
+        <v>567.707738396988</v>
       </c>
       <c r="S4">
-        <v>0.06212388909710972</v>
+        <v>0.03474777563699468</v>
       </c>
       <c r="T4">
-        <v>0.0621238890971097</v>
+        <v>0.03474777563699468</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>75.421902</v>
       </c>
       <c r="I5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J5">
-        <v>0.1388191398995883</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>5.231839666666666</v>
+        <v>0.027767</v>
       </c>
       <c r="N5">
-        <v>15.695519</v>
+        <v>0.083301</v>
       </c>
       <c r="O5">
-        <v>0.5524832588499997</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="P5">
-        <v>0.5524832588499998</v>
+        <v>0.002923627791763407</v>
       </c>
       <c r="Q5">
-        <v>131.5317662063487</v>
+        <v>0.6980799842780001</v>
       </c>
       <c r="R5">
-        <v>1183.785895857138</v>
+        <v>6.282719858502</v>
       </c>
       <c r="S5">
-        <v>0.07669525080247856</v>
+        <v>0.0003845474092880125</v>
       </c>
       <c r="T5">
-        <v>0.07669525080247856</v>
+        <v>0.0003845474092880125</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>153.9412893333333</v>
+        <v>25.140634</v>
       </c>
       <c r="H6">
-        <v>461.823868</v>
+        <v>75.421902</v>
       </c>
       <c r="I6">
-        <v>0.8500182366239053</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J6">
-        <v>0.8500182366239052</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="P6">
-        <v>0.4475167411500002</v>
+        <v>0.4462083687682946</v>
       </c>
       <c r="Q6">
-        <v>652.3786049021365</v>
+        <v>106.5419927707713</v>
       </c>
       <c r="R6">
-        <v>5871.407444119228</v>
+        <v>958.8779349369421</v>
       </c>
       <c r="S6">
-        <v>0.3803973911719998</v>
+        <v>0.05869019055568051</v>
       </c>
       <c r="T6">
-        <v>0.3803973911719998</v>
+        <v>0.0586901905556805</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>153.9412893333333</v>
+        <v>25.140634</v>
       </c>
       <c r="H7">
-        <v>461.823868</v>
+        <v>75.421902</v>
       </c>
       <c r="I7">
-        <v>0.8500182366239053</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="J7">
-        <v>0.8500182366239052</v>
+        <v>0.1315309049843414</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.231839666666666</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
         <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5524832588499997</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="P7">
-        <v>0.5524832588499998</v>
+        <v>0.5508680034399419</v>
       </c>
       <c r="Q7">
-        <v>805.3961438719434</v>
+        <v>131.5317662063487</v>
       </c>
       <c r="R7">
-        <v>7248.565294847491</v>
+        <v>1183.785895857138</v>
       </c>
       <c r="S7">
-        <v>0.4696208454519054</v>
+        <v>0.07245616701937282</v>
       </c>
       <c r="T7">
-        <v>0.4696208454519054</v>
+        <v>0.07245616701937282</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H8">
+        <v>461.8238680000001</v>
+      </c>
+      <c r="I8">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="J8">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.027767</v>
+      </c>
+      <c r="N8">
+        <v>0.083301</v>
+      </c>
+      <c r="O8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="P8">
+        <v>0.002923627791763407</v>
+      </c>
+      <c r="Q8">
+        <v>4.274487780918667</v>
+      </c>
+      <c r="R8">
+        <v>38.47039002826801</v>
+      </c>
+      <c r="S8">
+        <v>0.002354663132027207</v>
+      </c>
+      <c r="T8">
+        <v>0.002354663132027207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H9">
+        <v>461.8238680000001</v>
+      </c>
+      <c r="I9">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="J9">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.237840333333334</v>
+      </c>
+      <c r="N9">
+        <v>12.713521</v>
+      </c>
+      <c r="O9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="P9">
+        <v>0.4462083687682946</v>
+      </c>
+      <c r="Q9">
+        <v>652.3786049021365</v>
+      </c>
+      <c r="R9">
+        <v>5871.407444119229</v>
+      </c>
+      <c r="S9">
+        <v>0.3593721465162923</v>
+      </c>
+      <c r="T9">
+        <v>0.3593721465162923</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>153.9412893333333</v>
+      </c>
+      <c r="H10">
+        <v>461.8238680000001</v>
+      </c>
+      <c r="I10">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="J10">
+        <v>0.8053908704318941</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>5.231839666666667</v>
+      </c>
+      <c r="N10">
+        <v>15.695519</v>
+      </c>
+      <c r="O10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="P10">
+        <v>0.5508680034399419</v>
+      </c>
+      <c r="Q10">
+        <v>805.3961438719437</v>
+      </c>
+      <c r="R10">
+        <v>7248.565294847494</v>
+      </c>
+      <c r="S10">
+        <v>0.4436640607835744</v>
+      </c>
+      <c r="T10">
+        <v>0.4436640607835744</v>
       </c>
     </row>
   </sheetData>
